--- a/pred_ohlcv/54_21/2020-01-22 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MCO ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1173.3826308</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1277.13832407</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1274.13842407</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-180491.8977589301</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-180491.3762589301</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-180493.3762589301</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-180509.1762589301</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-180512.87755893</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-179306.67105893</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-179155.7746589301</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-179750.66665893</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-180836.85205893</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-181068.51155893</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-180744.46875893</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-180913.19324653</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-181140.1278465301</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-181115.2092465301</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-181125.41994653</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-181125.41994653</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-181128.10854653</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-181134.20854653</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-181157.80034653</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-181633.9892465301</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-182934.28234653</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-183082.9753465301</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-183085.7291465301</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-183592.1198465301</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-183599.03744514</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-732.3592645300001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-769.0523645300001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-844.0523645300001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1279.97796453</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1173.3826308</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1319.3826308</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1328.8844308</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1268.13842407</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1315.53762407</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1357.35232407</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1352.35232407</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1292.35232407</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-182792.35232407</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-180491.8977589301</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-180491.3762589301</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-180493.3762589301</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-180509.1762589301</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-180512.87755893</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-180513.3990589301</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-179103.8231589301</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-179062.61585893</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-179391.89585893</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-179340.35155893</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-179750.66665893</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-180836.85205893</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-181068.51155893</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-180744.46875893</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-180913.19324653</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-181140.1278465301</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-181134.20854653</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-181633.9892465301</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-182050.44804653</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-181987.9170465301</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-182857.8270465301</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-182932.1927465301</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-182932.99764653</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-182934.28234653</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-183070.04594653</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-183081.77534653</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-183082.9753465301</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-183085.7291465301</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-183592.1198465301</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-183602.5278465301</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-183599.03744514</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
